--- a/OSX-time.xlsx
+++ b/OSX-time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scaactk/Desktop/算法库性能比较/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09417E-B5BA-7845-AE12-B7F861AA4A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C271F20-7B37-0942-B4D8-2BA3261EC4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="38400" windowHeight="22040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10680" yWindow="460" windowWidth="38400" windowHeight="22040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,10 +696,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,10 +762,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>10000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2420,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2695,10 +2695,10 @@
         <v>100</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D22">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2720,10 +2720,10 @@
         <v>100</v>
       </c>
       <c r="C25">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D25">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2745,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9FB42F-CAD6-584F-9C15-3ED6A40529F3}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2828,15 +2828,45 @@
         <v>0.29128233333333298</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="B4">
+        <f>B3/B2</f>
+        <v>1.5173378176776093</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:H4" si="0">C3/C2</f>
+        <v>0.28724417769370797</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.107634628949274</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.0044307795609848</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.4635375989880304</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>3.300095147478435</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.4719927094966923</v>
+      </c>
+    </row>
     <row r="23" spans="1:4">
       <c r="B23">
         <v>100</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D23">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2865,6 +2895,20 @@
       </c>
       <c r="D25">
         <v>21.985975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26">
+        <f>B25/B24</f>
+        <v>6.237402015677346</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:D26" si="1">C25/C24</f>
+        <v>22.254806629834142</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>23.280141337069001</v>
       </c>
     </row>
   </sheetData>
